--- a/config/eClipSampleSheet.xlsx
+++ b/config/eClipSampleSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ld32/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D5D373-9425-8247-8B46-EE26358CDE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19054EA4-8B6A-2C41-BA04-9F8605732B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Read1 file name without space</t>
   </si>
@@ -77,10 +77,19 @@
     <t>Lane.barcodeID (could be any name without space)</t>
   </si>
   <si>
-    <t>lane1.A01</t>
-  </si>
-  <si>
-    <t>lane2.NIL</t>
+    <t>chrom19kbp550_clip2_r1.fastq.gz</t>
+  </si>
+  <si>
+    <t>chrom19kbp550_clip2_r2.fastq.gz</t>
+  </si>
+  <si>
+    <t>lane1.A01-B06</t>
+  </si>
+  <si>
+    <t>lane2.A01-B06</t>
+  </si>
+  <si>
+    <t>lane1.NIL</t>
   </si>
 </sst>
 </file>
@@ -100,12 +109,14 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -177,6 +188,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -483,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -537,8 +551,8 @@
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>16</v>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -555,21 +569,44 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/config/eClipSampleSheet.xlsx
+++ b/config/eClipSampleSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ld32/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19054EA4-8B6A-2C41-BA04-9F8605732B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792A68D7-266D-9545-9167-1C0B2492E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>lib1</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>lane1.NIL</t>
+  </si>
+  <si>
+    <t>ip</t>
   </si>
 </sst>
 </file>
@@ -500,7 +500,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -519,16 +519,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -543,71 +543,71 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/config/eClipSampleSheet.xlsx
+++ b/config/eClipSampleSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ld32/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792A68D7-266D-9545-9167-1C0B2492E3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3A4A97-09C3-C84A-814D-646D30A82158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28800" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Read1 file name without space</t>
   </si>
@@ -56,24 +56,9 @@
     <t>chrom19kbp550_input_r2.fastq.gz</t>
   </si>
   <si>
-    <t>Sample (cound be any name without space)</t>
-  </si>
-  <si>
-    <t>Treatment/Input (could be any name without space)</t>
-  </si>
-  <si>
-    <t>Library (could be any name without space)</t>
-  </si>
-  <si>
     <t>chrom19kbp550_clip1_r1.fastq.gz</t>
   </si>
   <si>
-    <t>sample1</t>
-  </si>
-  <si>
-    <t>Lane.barcodeID (could be any name without space)</t>
-  </si>
-  <si>
     <t>chrom19kbp550_clip2_r1.fastq.gz</t>
   </si>
   <si>
@@ -90,13 +75,31 @@
   </si>
   <si>
     <t>ip</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Lane.barcodeID</t>
+  </si>
+  <si>
+    <t>rep1</t>
+  </si>
+  <si>
+    <t>rep2</t>
+  </si>
+  <si>
+    <t>rep1/rep2</t>
+  </si>
+  <si>
+    <t>ip/input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +118,6 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -185,9 +180,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,18 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="88.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.5" style="1" customWidth="1"/>
@@ -518,17 +510,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -543,70 +535,93 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>16</v>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
